--- a/out/valorizacion.xlsx
+++ b/out/valorizacion.xlsx
@@ -12449,8 +12449,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;CHere is some centered text.</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
--- a/out/valorizacion.xlsx
+++ b/out/valorizacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="431">
   <si>
     <t>ITEM.</t>
   </si>
@@ -1270,6 +1270,9 @@
     <t>“RECONSTRUCCIÓN DE PISTAS Y VEREDAS EN LA AV. LAS TORRES TRAMO DESDE LA AV. CIRCUNVALACIÓN HASTA LA ALTURA DE LA QUINTA AV., L = 1.99 KM DISTRITO DE LURIGANCHO CHOSICA, LIMA – LIMA”. Con código único de inversión (IRI): 2498581</t>
   </si>
   <si>
+    <t>VALORIZACION DE OBRA Nº:  4 CORRESPONDIENTE AL MES DE DICIEMBRE2021</t>
+  </si>
+  <si>
     <t>ACUMULADO ANTERIOR</t>
   </si>
   <si>
@@ -1282,35 +1285,42 @@
     <t>SALDO POR VALORIZAR</t>
   </si>
   <si>
-    <t>8058151.0</t>
-  </si>
-  <si>
-    <t>2350372.52</t>
-  </si>
-  <si>
-    <t>1214079.79</t>
-  </si>
-  <si>
-    <t>3564452.32</t>
-  </si>
-  <si>
     <t>44.23%</t>
   </si>
   <si>
-    <t>4493698.68</t>
-  </si>
-  <si>
     <t>55.77%</t>
   </si>
   <si>
     <t>TOTAL COSTO DIRECTO</t>
+  </si>
+  <si>
+    <t>GASTOS GENERALES</t>
+  </si>
+  <si>
+    <t>UTILIDAD</t>
+  </si>
+  <si>
+    <t>VALORIZACION MENSUAL (Sin I.G.V)</t>
+  </si>
+  <si>
+    <t>I.G.V</t>
+  </si>
+  <si>
+    <t>TOTAL A VALORIZAR EN EL MES (Incl. I.G.V)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;S/ &quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;%&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;S/ &quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1330,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1341,7 +1366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1364,17 +1389,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1670,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P235"/>
+  <dimension ref="A2:P240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1714,99 +1769,109 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -12557,34 +12622,144 @@
       </c>
     </row>
     <row r="235" spans="1:16">
-      <c r="B235" t="s">
+      <c r="B235" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F235" s="5">
+        <v>8058151</v>
+      </c>
+      <c r="H235" s="5">
+        <v>2350372.52</v>
+      </c>
+      <c r="J235" s="5">
+        <v>1214079.79</v>
+      </c>
+      <c r="L235" s="5">
+        <v>3564452.32</v>
+      </c>
+      <c r="M235" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="O235" s="5">
+        <v>4493698.68</v>
+      </c>
+      <c r="P235" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
+      <c r="B236" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C236" s="8">
+        <v>9.810155828551741</v>
+      </c>
+      <c r="F236" s="9">
+        <v>790517.17</v>
+      </c>
+      <c r="H236" s="9">
+        <v>230575.21</v>
+      </c>
+      <c r="J236" s="9">
+        <v>119103.12</v>
+      </c>
+      <c r="L236" s="9">
+        <v>349678.33</v>
+      </c>
+      <c r="O236" s="9">
+        <v>440838.84</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
+      <c r="B237" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C237" s="8">
+        <v>8</v>
+      </c>
+      <c r="F237" s="9">
+        <v>644652.08</v>
+      </c>
+      <c r="H237" s="9">
+        <v>188029.8</v>
+      </c>
+      <c r="J237" s="9">
+        <v>97126.38</v>
+      </c>
+      <c r="L237" s="9">
+        <v>285156.19</v>
+      </c>
+      <c r="O237" s="9">
+        <v>359495.89</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
+      <c r="B238" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F238" s="5">
+        <v>9493320.25</v>
+      </c>
+      <c r="H238" s="5">
+        <v>2768977.53</v>
+      </c>
+      <c r="J238" s="5">
+        <v>1430309.29</v>
+      </c>
+      <c r="L238" s="5">
+        <v>4199286.84</v>
+      </c>
+      <c r="O238" s="5">
+        <v>5294033.409999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
+      <c r="B239" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F235" t="s">
-        <v>422</v>
-      </c>
-      <c r="H235" t="s">
-        <v>423</v>
-      </c>
-      <c r="J235" t="s">
-        <v>424</v>
-      </c>
-      <c r="L235" t="s">
-        <v>425</v>
-      </c>
-      <c r="M235" t="s">
-        <v>426</v>
-      </c>
-      <c r="O235" t="s">
-        <v>427</v>
-      </c>
-      <c r="P235" t="s">
-        <v>428</v>
+      <c r="C239" s="8">
+        <v>18</v>
+      </c>
+      <c r="F239" s="9">
+        <v>1708797.65</v>
+      </c>
+      <c r="H239" s="9">
+        <v>498415.96</v>
+      </c>
+      <c r="J239" s="9">
+        <v>257455.67</v>
+      </c>
+      <c r="L239" s="9">
+        <v>755871.63</v>
+      </c>
+      <c r="O239" s="9">
+        <v>952926.01</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
+      <c r="B240" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F240" s="5">
+        <v>11202117.9</v>
+      </c>
+      <c r="H240" s="5">
+        <v>3267393.49</v>
+      </c>
+      <c r="J240" s="5">
+        <v>1687764.96</v>
+      </c>
+      <c r="L240" s="5">
+        <v>4955158.47</v>
+      </c>
+      <c r="O240" s="5">
+        <v>6246959.419999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
